--- a/submission/round 1 review/Table1.xlsx
+++ b/submission/round 1 review/Table1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>(.03875-.04)</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Abstracts</t>
-  </si>
-  <si>
-    <t>Section</t>
   </si>
   <si>
     <t>&gt;.999</t>
@@ -120,14 +117,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,212 +442,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4597</v>
+      </c>
+      <c r="D2" s="2">
+        <v>26047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2565</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.35814018430605998</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4597</v>
-      </c>
-      <c r="D3" s="3">
-        <v>26047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2565</v>
-      </c>
-      <c r="D4" s="3">
-        <v>18664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.35814018430605998</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.41699999999999998</v>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6641</v>
+      </c>
+      <c r="D7" s="2">
+        <v>38537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4485</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.40310983282401602</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
         <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6641</v>
-      </c>
-      <c r="D8" s="3">
-        <v>38537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4485</v>
-      </c>
-      <c r="D9" s="3">
-        <v>30406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.40310983282401602</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" t="s">
-        <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9885</v>
+      </c>
+      <c r="D12" s="2">
+        <v>58809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7250</v>
+      </c>
+      <c r="D13" s="2">
+        <v>47755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.42311059235482901</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
         <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9885</v>
-      </c>
-      <c r="D13" s="3">
-        <v>58809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3">
-        <v>7250</v>
-      </c>
-      <c r="D14" s="3">
-        <v>47755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.42311059235482901</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" t="s">
-        <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
